--- a/_data/rd/temporal/Cantidad.xlsx
+++ b/_data/rd/temporal/Cantidad.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TEMPORAL\4D4R\TRABAJO\dashboard\senasir\_data\rd\temporal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acueto\Desktop\MAYO\RD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580EB46D-874F-42C4-9AB2-259F354C38E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="RD" sheetId="7" r:id="rId1"/>
@@ -24,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RD!$A$1:$Q$114</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -519,7 +518,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1354,7 +1353,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1800,7 +1799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
@@ -1901,7 +1900,7 @@
       </c>
       <c r="I2" s="47">
         <f>+'SR - Planilla Disgregado'!G13</f>
-        <v>0</v>
+        <v>35777</v>
       </c>
       <c r="J2" s="47">
         <f>+'SR - Planilla Disgregado'!H13</f>
@@ -1967,7 +1966,7 @@
       </c>
       <c r="I3" s="47">
         <f>+'SR - Planilla Disgregado'!G14</f>
-        <v>0</v>
+        <v>22067</v>
       </c>
       <c r="J3" s="47">
         <f>+'SR - Planilla Disgregado'!H14</f>
@@ -2033,7 +2032,7 @@
       </c>
       <c r="I4" s="47">
         <f>+'SR - Planilla Disgregado'!G16</f>
-        <v>0</v>
+        <v>855</v>
       </c>
       <c r="J4" s="47">
         <f>+'SR - Planilla Disgregado'!H16</f>
@@ -2099,7 +2098,7 @@
       </c>
       <c r="I5" s="47">
         <f>+'SR - Planilla Disgregado'!G17</f>
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="J5" s="47">
         <f>+'SR - Planilla Disgregado'!H17</f>
@@ -2165,7 +2164,7 @@
       </c>
       <c r="I6" s="47">
         <f>+'SR - Tit - DH'!G22</f>
-        <v>0</v>
+        <v>20169</v>
       </c>
       <c r="J6" s="47">
         <f>+'SR - Tit - DH'!H22</f>
@@ -2231,7 +2230,7 @@
       </c>
       <c r="I7" s="47">
         <f>+'SR - Tit - DH'!G23</f>
-        <v>0</v>
+        <v>16463</v>
       </c>
       <c r="J7" s="47">
         <f>+'SR - Tit - DH'!H23</f>
@@ -2297,7 +2296,7 @@
       </c>
       <c r="I8" s="47">
         <f>+'SR - Tit - DH'!G24</f>
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="J8" s="47">
         <f>+'SR - Tit - DH'!H24</f>
@@ -2363,7 +2362,7 @@
       </c>
       <c r="I9" s="47">
         <f>+'SR - Tit - DH'!G25</f>
-        <v>0</v>
+        <v>22125</v>
       </c>
       <c r="J9" s="47">
         <f>+'SR - Tit - DH'!H25</f>
@@ -2429,7 +2428,7 @@
       </c>
       <c r="I10" s="47">
         <f>+'SR - Tipo de Renta'!F13</f>
-        <v>0</v>
+        <v>53718</v>
       </c>
       <c r="J10" s="47">
         <f>+'SR - Tipo de Renta'!G13</f>
@@ -2495,7 +2494,7 @@
       </c>
       <c r="I11" s="47">
         <f>+'SR - Tipo de Renta'!F14</f>
-        <v>0</v>
+        <v>5438</v>
       </c>
       <c r="J11" s="47">
         <f>+'SR - Tipo de Renta'!G14</f>
@@ -2627,7 +2626,7 @@
       </c>
       <c r="I13" s="47">
         <f>+'SR - Clase de Renta'!F15</f>
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="J13" s="47">
         <f>+'SR - Clase de Renta'!G15</f>
@@ -2759,7 +2758,7 @@
       </c>
       <c r="I15" s="47">
         <f>+'SR - Clase de Renta'!F17</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J15" s="47">
         <f>+'SR - Clase de Renta'!G17</f>
@@ -2825,7 +2824,7 @@
       </c>
       <c r="I16" s="47">
         <f>+'SR - Clase de Renta'!F18</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J16" s="47">
         <f>+'SR - Clase de Renta'!G18</f>
@@ -2891,7 +2890,7 @@
       </c>
       <c r="I17" s="47">
         <f>+'SR - Clase de Renta'!F19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="47">
         <f>+'SR - Clase de Renta'!G19</f>
@@ -2957,7 +2956,7 @@
       </c>
       <c r="I18" s="47">
         <f>+'SR - Clase de Renta'!F20</f>
-        <v>0</v>
+        <v>33876</v>
       </c>
       <c r="J18" s="47">
         <f>+'SR - Clase de Renta'!G20</f>
@@ -3023,7 +3022,7 @@
       </c>
       <c r="I19" s="47">
         <f>+'SR - Clase de Renta'!F21</f>
-        <v>0</v>
+        <v>18854</v>
       </c>
       <c r="J19" s="47">
         <f>+'SR - Clase de Renta'!G21</f>
@@ -3089,7 +3088,7 @@
       </c>
       <c r="I20" s="47">
         <f>+'SR - Clase de Renta'!F24</f>
-        <v>0</v>
+        <v>1736</v>
       </c>
       <c r="J20" s="47">
         <f>+'SR - Clase de Renta'!G24</f>
@@ -3155,7 +3154,7 @@
       </c>
       <c r="I21" s="47">
         <f>+'SR - Clase de Renta'!F25</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="J21" s="47">
         <f>+'SR - Clase de Renta'!G25</f>
@@ -3287,7 +3286,7 @@
       </c>
       <c r="I23" s="47">
         <f>+'SR - Clase de Renta'!F27</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J23" s="47">
         <f>+'SR - Clase de Renta'!G27</f>
@@ -3353,7 +3352,7 @@
       </c>
       <c r="I24" s="47">
         <f>+'SR - Clase de Renta'!F28</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J24" s="47">
         <f>+'SR - Clase de Renta'!G28</f>
@@ -3419,7 +3418,7 @@
       </c>
       <c r="I25" s="47">
         <f>+'SR - Clase de Renta'!F29</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="47">
         <f>+'SR - Clase de Renta'!G29</f>
@@ -3485,7 +3484,7 @@
       </c>
       <c r="I26" s="47">
         <f>+'SR - Clase de Renta'!F30</f>
-        <v>0</v>
+        <v>3579</v>
       </c>
       <c r="J26" s="47">
         <f>+'SR - Clase de Renta'!G30</f>
@@ -3551,7 +3550,7 @@
       </c>
       <c r="I27" s="47">
         <f>+'SR - Sector'!F13</f>
-        <v>0</v>
+        <v>1276</v>
       </c>
       <c r="J27" s="47">
         <f>+'SR - Sector'!G13</f>
@@ -3617,7 +3616,7 @@
       </c>
       <c r="I28" s="47">
         <f>+'SR - Sector'!F14</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J28" s="47">
         <f>+'SR - Sector'!G14</f>
@@ -3683,7 +3682,7 @@
       </c>
       <c r="I29" s="47">
         <f>+'SR - Sector'!F15</f>
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="J29" s="47">
         <f>+'SR - Sector'!G15</f>
@@ -3749,7 +3748,7 @@
       </c>
       <c r="I30" s="47">
         <f>+'SR - Sector'!F16</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="J30" s="47">
         <f>+'SR - Sector'!G16</f>
@@ -3815,7 +3814,7 @@
       </c>
       <c r="I31" s="47">
         <f>+'SR - Sector'!F17</f>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="J31" s="47">
         <f>+'SR - Sector'!G17</f>
@@ -3881,7 +3880,7 @@
       </c>
       <c r="I32" s="47">
         <f>+'SR - Sector'!F18</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="J32" s="47">
         <f>+'SR - Sector'!G18</f>
@@ -3947,7 +3946,7 @@
       </c>
       <c r="I33" s="47">
         <f>+'SR - Sector'!F19</f>
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="J33" s="47">
         <f>+'SR - Sector'!G19</f>
@@ -4013,7 +4012,7 @@
       </c>
       <c r="I34" s="47">
         <f>+'SR - Sector'!F20</f>
-        <v>0</v>
+        <v>707</v>
       </c>
       <c r="J34" s="47">
         <f>+'SR - Sector'!G20</f>
@@ -4079,7 +4078,7 @@
       </c>
       <c r="I35" s="47">
         <f>+'SR - Sector'!F21</f>
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="J35" s="47">
         <f>+'SR - Sector'!G21</f>
@@ -4145,7 +4144,7 @@
       </c>
       <c r="I36" s="47">
         <f>+'SR - Sector'!F22</f>
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="J36" s="47">
         <f>+'SR - Sector'!G22</f>
@@ -4211,7 +4210,7 @@
       </c>
       <c r="I37" s="47">
         <f>+'SR - Sector'!F23</f>
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="J37" s="47">
         <f>+'SR - Sector'!G23</f>
@@ -4343,7 +4342,7 @@
       </c>
       <c r="I39" s="47">
         <f>+'SR - Sector'!F25</f>
-        <v>0</v>
+        <v>2487</v>
       </c>
       <c r="J39" s="47">
         <f>+'SR - Sector'!G25</f>
@@ -4409,7 +4408,7 @@
       </c>
       <c r="I40" s="47">
         <f>+'SR - Sector'!F26</f>
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="J40" s="47">
         <f>+'SR - Sector'!G26</f>
@@ -4475,7 +4474,7 @@
       </c>
       <c r="I41" s="47">
         <f>+'SR - Sector'!F27</f>
-        <v>0</v>
+        <v>6089</v>
       </c>
       <c r="J41" s="47">
         <f>+'SR - Sector'!G27</f>
@@ -4541,7 +4540,7 @@
       </c>
       <c r="I42" s="47">
         <f>+'SR - Sector'!F28</f>
-        <v>0</v>
+        <v>2745</v>
       </c>
       <c r="J42" s="47">
         <f>+'SR - Sector'!G28</f>
@@ -4607,7 +4606,7 @@
       </c>
       <c r="I43" s="47">
         <f>+'SR - Sector'!F29</f>
-        <v>0</v>
+        <v>3065</v>
       </c>
       <c r="J43" s="47">
         <f>+'SR - Sector'!G29</f>
@@ -4673,7 +4672,7 @@
       </c>
       <c r="I44" s="47">
         <f>+'SR - Sector'!F30</f>
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="J44" s="47">
         <f>+'SR - Sector'!G30</f>
@@ -4739,7 +4738,7 @@
       </c>
       <c r="I45" s="47">
         <f>+'SR - Sector'!F31</f>
-        <v>0</v>
+        <v>767</v>
       </c>
       <c r="J45" s="47">
         <f>+'SR - Sector'!G31</f>
@@ -4805,7 +4804,7 @@
       </c>
       <c r="I46" s="47">
         <f>+'SR - Sector'!F32</f>
-        <v>0</v>
+        <v>2398</v>
       </c>
       <c r="J46" s="47">
         <f>+'SR - Sector'!G32</f>
@@ -4871,7 +4870,7 @@
       </c>
       <c r="I47" s="47">
         <f>+'SR - Sector'!F33</f>
-        <v>0</v>
+        <v>1783</v>
       </c>
       <c r="J47" s="47">
         <f>+'SR - Sector'!G33</f>
@@ -4937,7 +4936,7 @@
       </c>
       <c r="I48" s="47">
         <f>+'SR - Sector'!F34</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J48" s="47">
         <f>+'SR - Sector'!G34</f>
@@ -5003,7 +5002,7 @@
       </c>
       <c r="I49" s="47">
         <f>+'SR - Sector'!F35</f>
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="J49" s="47">
         <f>+'SR - Sector'!G35</f>
@@ -5069,7 +5068,7 @@
       </c>
       <c r="I50" s="47">
         <f>+'SR - Sector'!F36</f>
-        <v>0</v>
+        <v>1201</v>
       </c>
       <c r="J50" s="47">
         <f>+'SR - Sector'!G36</f>
@@ -5135,7 +5134,7 @@
       </c>
       <c r="I51" s="47">
         <f>+'SR - Sector'!F37</f>
-        <v>0</v>
+        <v>14978</v>
       </c>
       <c r="J51" s="47">
         <f>+'SR - Sector'!G37</f>
@@ -5201,7 +5200,7 @@
       </c>
       <c r="I52" s="47">
         <f>+'SR - Sector'!F38</f>
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="J52" s="47">
         <f>+'SR - Sector'!G38</f>
@@ -5267,7 +5266,7 @@
       </c>
       <c r="I53" s="47">
         <f>+'SR - Sector'!F39</f>
-        <v>0</v>
+        <v>477</v>
       </c>
       <c r="J53" s="47">
         <f>+'SR - Sector'!G39</f>
@@ -5333,7 +5332,7 @@
       </c>
       <c r="I54" s="47">
         <f>+'SR - Sector'!F40</f>
-        <v>0</v>
+        <v>2156</v>
       </c>
       <c r="J54" s="47">
         <f>+'SR - Sector'!G40</f>
@@ -5399,7 +5398,7 @@
       </c>
       <c r="I55" s="47">
         <f>+'SR - Sector'!F41</f>
-        <v>0</v>
+        <v>1642</v>
       </c>
       <c r="J55" s="47">
         <f>+'SR - Sector'!G41</f>
@@ -5465,7 +5464,7 @@
       </c>
       <c r="I56" s="47">
         <f>+'SR - Sector'!F42</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="J56" s="47">
         <f>+'SR - Sector'!G42</f>
@@ -5531,7 +5530,7 @@
       </c>
       <c r="I57" s="47">
         <f>+'SR - Sector'!F43</f>
-        <v>0</v>
+        <v>2066</v>
       </c>
       <c r="J57" s="47">
         <f>+'SR - Sector'!G43</f>
@@ -5597,7 +5596,7 @@
       </c>
       <c r="I58" s="47">
         <f>+'SR - Sector'!F44</f>
-        <v>0</v>
+        <v>547</v>
       </c>
       <c r="J58" s="47">
         <f>+'SR - Sector'!G44</f>
@@ -5663,7 +5662,7 @@
       </c>
       <c r="I59" s="47">
         <f>+'SR - Sector'!F45</f>
-        <v>0</v>
+        <v>1162</v>
       </c>
       <c r="J59" s="47">
         <f>+'SR - Sector'!G45</f>
@@ -5729,7 +5728,7 @@
       </c>
       <c r="I60" s="47">
         <f>+'SR - Sector'!F46</f>
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="J60" s="47">
         <f>+'SR - Sector'!G46</f>
@@ -5795,7 +5794,7 @@
       </c>
       <c r="I61" s="47">
         <f>+'SR - Sector'!F47</f>
-        <v>0</v>
+        <v>1192</v>
       </c>
       <c r="J61" s="47">
         <f>+'SR - Sector'!G47</f>
@@ -5861,7 +5860,7 @@
       </c>
       <c r="I62" s="47">
         <f>+'SR - Sector'!F48</f>
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="J62" s="47">
         <f>+'SR - Sector'!G48</f>
@@ -5927,7 +5926,7 @@
       </c>
       <c r="I63" s="47">
         <f>+'SR - Sector'!F49</f>
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="J63" s="47">
         <f>+'SR - Sector'!G49</f>
@@ -5993,7 +5992,7 @@
       </c>
       <c r="I64" s="47">
         <f>+'SR - Sector'!F50</f>
-        <v>0</v>
+        <v>467</v>
       </c>
       <c r="J64" s="47">
         <f>+'SR - Sector'!G50</f>
@@ -6059,7 +6058,7 @@
       </c>
       <c r="I65" s="47">
         <f>+'SR - Regional'!G13</f>
-        <v>0</v>
+        <v>18774</v>
       </c>
       <c r="J65" s="47">
         <f>+'SR - Regional'!H13</f>
@@ -6125,7 +6124,7 @@
       </c>
       <c r="I66" s="47">
         <f>+'SR - Regional'!G14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" s="47">
         <f>+'SR - Regional'!H14</f>
@@ -6191,7 +6190,7 @@
       </c>
       <c r="I67" s="47">
         <f>+'SR - Regional'!G15</f>
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="J67" s="47">
         <f>+'SR - Regional'!H15</f>
@@ -6257,7 +6256,7 @@
       </c>
       <c r="I68" s="47">
         <f>+'SR - Regional'!G16</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J68" s="47">
         <f>+'SR - Regional'!H16</f>
@@ -6323,7 +6322,7 @@
       </c>
       <c r="I69" s="47">
         <f>+'SR - Regional'!G17</f>
-        <v>0</v>
+        <v>13279</v>
       </c>
       <c r="J69" s="47">
         <f>+'SR - Regional'!H17</f>
@@ -6389,7 +6388,7 @@
       </c>
       <c r="I70" s="47">
         <f>+'SR - Regional'!G18</f>
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="J70" s="47">
         <f>+'SR - Regional'!H18</f>
@@ -6455,7 +6454,7 @@
       </c>
       <c r="I71" s="47">
         <f>+'SR - Regional'!G19</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="J71" s="47">
         <f>+'SR - Regional'!H19</f>
@@ -6521,7 +6520,7 @@
       </c>
       <c r="I72" s="47">
         <f>+'SR - Regional'!G20</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J72" s="47">
         <f>+'SR - Regional'!H20</f>
@@ -6587,7 +6586,7 @@
       </c>
       <c r="I73" s="47">
         <f>+'SR - Regional'!G21</f>
-        <v>0</v>
+        <v>7940</v>
       </c>
       <c r="J73" s="47">
         <f>+'SR - Regional'!H21</f>
@@ -6653,7 +6652,7 @@
       </c>
       <c r="I74" s="47">
         <f>+'SR - Regional'!G22</f>
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="J74" s="47">
         <f>+'SR - Regional'!H22</f>
@@ -6719,7 +6718,7 @@
       </c>
       <c r="I75" s="47">
         <f>+'SR - Regional'!G23</f>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="J75" s="47">
         <f>+'SR - Regional'!H23</f>
@@ -6785,7 +6784,7 @@
       </c>
       <c r="I76" s="47">
         <f>+'SR - Regional'!G24</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="J76" s="47">
         <f>+'SR - Regional'!H24</f>
@@ -6851,7 +6850,7 @@
       </c>
       <c r="I77" s="47">
         <f>+'SR - Regional'!G25</f>
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="J77" s="47">
         <f>+'SR - Regional'!H25</f>
@@ -6917,7 +6916,7 @@
       </c>
       <c r="I78" s="47">
         <f>+'SR - Regional'!G26</f>
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="J78" s="47">
         <f>+'SR - Regional'!H26</f>
@@ -6983,7 +6982,7 @@
       </c>
       <c r="I79" s="47">
         <f>+'SR - Regional'!G27</f>
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="J79" s="47">
         <f>+'SR - Regional'!H27</f>
@@ -7049,7 +7048,7 @@
       </c>
       <c r="I80" s="47">
         <f>+'SR - Regional'!G28</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J80" s="47">
         <f>+'SR - Regional'!H28</f>
@@ -7115,7 +7114,7 @@
       </c>
       <c r="I81" s="47">
         <f>+'SR - Regional'!G29</f>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="J81" s="47">
         <f>+'SR - Regional'!H29</f>
@@ -7181,7 +7180,7 @@
       </c>
       <c r="I82" s="47">
         <f>+'SR - Regional'!G30</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J82" s="47">
         <f>+'SR - Regional'!H30</f>
@@ -7247,7 +7246,7 @@
       </c>
       <c r="I83" s="47">
         <f>+'SR - Regional'!G31</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J83" s="47">
         <f>+'SR - Regional'!H31</f>
@@ -7313,7 +7312,7 @@
       </c>
       <c r="I84" s="47">
         <f>+'SR - Regional'!G32</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="J84" s="47">
         <f>+'SR - Regional'!H32</f>
@@ -7445,7 +7444,7 @@
       </c>
       <c r="I86" s="47">
         <f>+'SR - Regional'!G34</f>
-        <v>0</v>
+        <v>4691</v>
       </c>
       <c r="J86" s="47">
         <f>+'SR - Regional'!H34</f>
@@ -7511,7 +7510,7 @@
       </c>
       <c r="I87" s="47">
         <f>+'SR - Regional'!G35</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J87" s="47">
         <f>+'SR - Regional'!H35</f>
@@ -7577,7 +7576,7 @@
       </c>
       <c r="I88" s="47">
         <f>+'SR - Regional'!G36</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J88" s="47">
         <f>+'SR - Regional'!H36</f>
@@ -7643,7 +7642,7 @@
       </c>
       <c r="I89" s="47">
         <f>+'SR - Regional'!G37</f>
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="J89" s="47">
         <f>+'SR - Regional'!H37</f>
@@ -7709,7 +7708,7 @@
       </c>
       <c r="I90" s="47">
         <f>+'SR - Regional'!G38</f>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="J90" s="47">
         <f>+'SR - Regional'!H38</f>
@@ -7841,7 +7840,7 @@
       </c>
       <c r="I92" s="47">
         <f>+'SR - Regional'!G40</f>
-        <v>0</v>
+        <v>3353</v>
       </c>
       <c r="J92" s="47">
         <f>+'SR - Regional'!H40</f>
@@ -7907,7 +7906,7 @@
       </c>
       <c r="I93" s="47">
         <f>+'SR - Regional'!G41</f>
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="J93" s="47">
         <f>+'SR - Regional'!H41</f>
@@ -7973,7 +7972,7 @@
       </c>
       <c r="I94" s="47">
         <f>+'SR - Regional'!G42</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J94" s="47">
         <f>+'SR - Regional'!H42</f>
@@ -8039,7 +8038,7 @@
       </c>
       <c r="I95" s="47">
         <f>+'SR - Regional'!G43</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="J95" s="47">
         <f>+'SR - Regional'!H43</f>
@@ -8105,7 +8104,7 @@
       </c>
       <c r="I96" s="47">
         <f>+'SR - Regional'!G44</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="J96" s="47">
         <f>+'SR - Regional'!H44</f>
@@ -8171,7 +8170,7 @@
       </c>
       <c r="I97" s="47">
         <f>+'SR - Regional'!G45</f>
-        <v>0</v>
+        <v>792</v>
       </c>
       <c r="J97" s="47">
         <f>+'SR - Regional'!H45</f>
@@ -8237,7 +8236,7 @@
       </c>
       <c r="I98" s="47">
         <f>+'SR - Regional'!G46</f>
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="J98" s="47">
         <f>+'SR - Regional'!H46</f>
@@ -8303,7 +8302,7 @@
       </c>
       <c r="I99" s="47">
         <f>+'SR - Regional'!G47</f>
-        <v>0</v>
+        <v>3075</v>
       </c>
       <c r="J99" s="47">
         <f>+'SR - Regional'!H47</f>
@@ -8369,7 +8368,7 @@
       </c>
       <c r="I100" s="47">
         <f>+'SR - Regional'!G48</f>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="J100" s="47">
         <f>+'SR - Regional'!H48</f>
@@ -8435,7 +8434,7 @@
       </c>
       <c r="I101" s="47">
         <f>+'SR - Regional'!G49</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" s="47">
         <f>+'SR - Regional'!H49</f>
@@ -8501,7 +8500,7 @@
       </c>
       <c r="I102" s="47">
         <f>+'SR - Regional'!G50</f>
-        <v>0</v>
+        <v>2004</v>
       </c>
       <c r="J102" s="47">
         <f>+'SR - Regional'!H50</f>
@@ -8567,7 +8566,7 @@
       </c>
       <c r="I103" s="47">
         <f>+'SR - Regional'!G51</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="J103" s="47">
         <f>+'SR - Regional'!H51</f>
@@ -8633,7 +8632,7 @@
       </c>
       <c r="I104" s="47">
         <f>+'SR - Regional'!G52</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="J104" s="47">
         <f>+'SR - Regional'!H52</f>
@@ -8699,7 +8698,7 @@
       </c>
       <c r="I105" s="47">
         <f>+'SR - Regional'!G53</f>
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="J105" s="47">
         <f>+'SR - Regional'!H53</f>
@@ -8765,7 +8764,7 @@
       </c>
       <c r="I106" s="47">
         <f>+'SR - Regional'!G54</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J106" s="47">
         <f>+'SR - Regional'!H54</f>
@@ -8831,7 +8830,7 @@
       </c>
       <c r="I107" s="47">
         <f>+'SR - Regional'!G55</f>
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="J107" s="47">
         <f>+'SR - Regional'!H55</f>
@@ -8897,7 +8896,7 @@
       </c>
       <c r="I108" s="47">
         <f>+'SR - Regional'!G56</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J108" s="47">
         <f>+'SR - Regional'!H56</f>
@@ -8963,7 +8962,7 @@
       </c>
       <c r="I109" s="47">
         <f>+'SR - Regional'!G57</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J109" s="47">
         <f>+'SR - Regional'!H57</f>
@@ -9029,7 +9028,7 @@
       </c>
       <c r="I110" s="47">
         <f>+'SR - Regional'!G58</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J110" s="47">
         <f>+'SR - Regional'!H58</f>
@@ -9095,7 +9094,7 @@
       </c>
       <c r="I111" s="47">
         <f>+'SR - Regional'!G59</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J111" s="47">
         <f>+'SR - Regional'!H59</f>
@@ -9161,7 +9160,7 @@
       </c>
       <c r="I112" s="47">
         <f>+'SR - Regional'!G60</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J112" s="47">
         <f>+'SR - Regional'!H60</f>
@@ -9227,7 +9226,7 @@
       </c>
       <c r="I113" s="47">
         <f>+'SR - Regional'!G61</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J113" s="47">
         <f>+'SR - Regional'!H61</f>
@@ -9293,7 +9292,7 @@
       </c>
       <c r="I114" s="47">
         <f>+'SR - Regional'!G62</f>
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="J114" s="47">
         <f>+'SR - Regional'!H62</f>
@@ -9329,21 +9328,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q114" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Q114"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A6:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9506,7 +9505,9 @@
       <c r="F13" s="11">
         <v>35971</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="11">
+        <v>35777</v>
+      </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -9533,7 +9534,9 @@
       <c r="F14" s="11">
         <v>22089</v>
       </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="11">
+        <v>22067</v>
+      </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
@@ -9565,7 +9568,7 @@
       </c>
       <c r="G15" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>57844</v>
       </c>
       <c r="H15" s="13">
         <f t="shared" si="1"/>
@@ -9619,7 +9622,9 @@
       <c r="F16" s="11">
         <v>877</v>
       </c>
-      <c r="G16" s="11"/>
+      <c r="G16" s="11">
+        <v>855</v>
+      </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
@@ -9646,7 +9651,9 @@
       <c r="F17" s="11">
         <v>461</v>
       </c>
-      <c r="G17" s="11"/>
+      <c r="G17" s="11">
+        <v>457</v>
+      </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
@@ -9678,7 +9685,7 @@
       </c>
       <c r="G18" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1312</v>
       </c>
       <c r="H18" s="13">
         <f t="shared" si="3"/>
@@ -9736,7 +9743,7 @@
       </c>
       <c r="G19" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>59156</v>
       </c>
       <c r="H19" s="15">
         <f t="shared" si="4"/>
@@ -10813,11 +10820,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:O1000"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:O12"/>
+      <selection activeCell="G22" sqref="G22:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -10978,7 +10985,9 @@
       <c r="F13" s="11">
         <v>36848</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="11">
+        <v>36632</v>
+      </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -11005,7 +11014,9 @@
       <c r="F14" s="11">
         <v>22550</v>
       </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="11">
+        <v>22524</v>
+      </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
@@ -11038,7 +11049,7 @@
       </c>
       <c r="G15" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59156</v>
       </c>
       <c r="H15" s="22">
         <f t="shared" si="0"/>
@@ -11190,7 +11201,9 @@
       <c r="F22" s="11">
         <v>20310</v>
       </c>
-      <c r="G22" s="11"/>
+      <c r="G22" s="11">
+        <v>20169</v>
+      </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -11217,7 +11230,9 @@
       <c r="F23" s="11">
         <v>16538</v>
       </c>
-      <c r="G23" s="11"/>
+      <c r="G23" s="11">
+        <v>16463</v>
+      </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
@@ -11246,7 +11261,9 @@
       <c r="F24" s="11">
         <v>401</v>
       </c>
-      <c r="G24" s="11"/>
+      <c r="G24" s="11">
+        <v>399</v>
+      </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -11273,7 +11290,9 @@
       <c r="F25" s="11">
         <v>22149</v>
       </c>
-      <c r="G25" s="11"/>
+      <c r="G25" s="11">
+        <v>22125</v>
+      </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
@@ -11306,7 +11325,7 @@
       </c>
       <c r="G26" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>59156</v>
       </c>
       <c r="H26" s="15">
         <f>SUM(H22:H25)</f>
@@ -12338,11 +12357,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:N1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F13" sqref="F13:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -12491,7 +12510,9 @@
       <c r="E13" s="11">
         <v>53946</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="11">
+        <v>53718</v>
+      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -12517,7 +12538,9 @@
       <c r="E14" s="11">
         <v>5452</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="11">
+        <v>5438</v>
+      </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -12549,7 +12572,7 @@
       </c>
       <c r="F15" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59156</v>
       </c>
       <c r="G15" s="22">
         <f t="shared" si="0"/>
@@ -13585,11 +13608,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:N1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:E30"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -13756,7 +13779,9 @@
       <c r="E14" s="49">
         <v>0</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -13782,7 +13807,9 @@
       <c r="E15" s="49">
         <v>935</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="10">
+        <v>925</v>
+      </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -13808,7 +13835,9 @@
       <c r="E16" s="49">
         <v>0</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -13834,7 +13863,9 @@
       <c r="E17" s="49">
         <v>8</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="10">
+        <v>7</v>
+      </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -13860,7 +13891,9 @@
       <c r="E18" s="49">
         <v>55</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="10">
+        <v>55</v>
+      </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -13886,7 +13919,9 @@
       <c r="E19" s="49">
         <v>1</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="10">
+        <v>1</v>
+      </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -13912,7 +13947,9 @@
       <c r="E20" s="50">
         <v>34075</v>
       </c>
-      <c r="F20" s="10"/>
+      <c r="F20" s="10">
+        <v>33876</v>
+      </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -13938,7 +13975,9 @@
       <c r="E21" s="50">
         <v>18872</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="F21" s="10">
+        <v>18854</v>
+      </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -13970,7 +14009,7 @@
       </c>
       <c r="F22" s="32">
         <f t="shared" ref="F22:N22" si="1">SUM(F14:F21)</f>
-        <v>0</v>
+        <v>53718</v>
       </c>
       <c r="G22" s="32">
         <f t="shared" si="1"/>
@@ -14039,7 +14078,9 @@
       <c r="E24" s="10">
         <v>1743</v>
       </c>
-      <c r="F24" s="10"/>
+      <c r="F24" s="10">
+        <v>1736</v>
+      </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -14065,7 +14106,9 @@
       <c r="E25" s="10">
         <v>95</v>
       </c>
-      <c r="F25" s="10"/>
+      <c r="F25" s="10">
+        <v>95</v>
+      </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -14091,7 +14134,9 @@
       <c r="E26" s="10">
         <v>0</v>
       </c>
-      <c r="F26" s="10"/>
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -14117,7 +14162,9 @@
       <c r="E27" s="10">
         <v>6</v>
       </c>
-      <c r="F27" s="10"/>
+      <c r="F27" s="10">
+        <v>6</v>
+      </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -14143,7 +14190,9 @@
       <c r="E28" s="10">
         <v>21</v>
       </c>
-      <c r="F28" s="10"/>
+      <c r="F28" s="10">
+        <v>21</v>
+      </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -14169,7 +14218,9 @@
       <c r="E29" s="10">
         <v>1</v>
       </c>
-      <c r="F29" s="10"/>
+      <c r="F29" s="10">
+        <v>1</v>
+      </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -14195,7 +14246,9 @@
       <c r="E30" s="10">
         <v>3586</v>
       </c>
-      <c r="F30" s="10"/>
+      <c r="F30" s="10">
+        <v>3579</v>
+      </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
@@ -14227,7 +14280,7 @@
       </c>
       <c r="F31" s="32">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5438</v>
       </c>
       <c r="G31" s="32">
         <f t="shared" si="2"/>
@@ -14284,7 +14337,7 @@
       </c>
       <c r="F32" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>59156</v>
       </c>
       <c r="G32" s="15">
         <f t="shared" si="3"/>
@@ -15305,11 +15358,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:N1000"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E50"/>
+      <selection activeCell="F13" sqref="F13:F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -15462,7 +15515,9 @@
       <c r="E13" s="35">
         <v>1273</v>
       </c>
-      <c r="F13" s="35"/>
+      <c r="F13" s="35">
+        <v>1276</v>
+      </c>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
@@ -15488,7 +15543,9 @@
       <c r="E14" s="35">
         <v>5</v>
       </c>
-      <c r="F14" s="35"/>
+      <c r="F14" s="35">
+        <v>6</v>
+      </c>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
@@ -15514,7 +15571,9 @@
       <c r="E15" s="35">
         <v>321</v>
       </c>
-      <c r="F15" s="35"/>
+      <c r="F15" s="35">
+        <v>301</v>
+      </c>
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
       <c r="I15" s="35"/>
@@ -15540,7 +15599,9 @@
       <c r="E16" s="35">
         <v>85</v>
       </c>
-      <c r="F16" s="35"/>
+      <c r="F16" s="35">
+        <v>84</v>
+      </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
@@ -15566,7 +15627,9 @@
       <c r="E17" s="35">
         <v>190</v>
       </c>
-      <c r="F17" s="35"/>
+      <c r="F17" s="35">
+        <v>190</v>
+      </c>
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
@@ -15592,7 +15655,9 @@
       <c r="E18" s="35">
         <v>81</v>
       </c>
-      <c r="F18" s="35"/>
+      <c r="F18" s="35">
+        <v>81</v>
+      </c>
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
@@ -15618,7 +15683,9 @@
       <c r="E19" s="35">
         <v>235</v>
       </c>
-      <c r="F19" s="35"/>
+      <c r="F19" s="35">
+        <v>236</v>
+      </c>
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
@@ -15644,7 +15711,9 @@
       <c r="E20" s="35">
         <v>709</v>
       </c>
-      <c r="F20" s="35"/>
+      <c r="F20" s="35">
+        <v>707</v>
+      </c>
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
@@ -15670,7 +15739,9 @@
       <c r="E21" s="35">
         <v>462</v>
       </c>
-      <c r="F21" s="35"/>
+      <c r="F21" s="35">
+        <v>459</v>
+      </c>
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
@@ -15696,7 +15767,9 @@
       <c r="E22" s="35">
         <v>246</v>
       </c>
-      <c r="F22" s="35"/>
+      <c r="F22" s="35">
+        <v>246</v>
+      </c>
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
@@ -15722,7 +15795,9 @@
       <c r="E23" s="35">
         <v>165</v>
       </c>
-      <c r="F23" s="35"/>
+      <c r="F23" s="35">
+        <v>164</v>
+      </c>
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
@@ -15748,7 +15823,9 @@
       <c r="E24" s="35">
         <v>0</v>
       </c>
-      <c r="F24" s="35"/>
+      <c r="F24" s="35">
+        <v>0</v>
+      </c>
       <c r="G24" s="35"/>
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
@@ -15774,7 +15851,9 @@
       <c r="E25" s="35">
         <v>2486</v>
       </c>
-      <c r="F25" s="35"/>
+      <c r="F25" s="35">
+        <v>2487</v>
+      </c>
       <c r="G25" s="35"/>
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
@@ -15800,7 +15879,9 @@
       <c r="E26" s="35">
         <v>341</v>
       </c>
-      <c r="F26" s="35"/>
+      <c r="F26" s="35">
+        <v>342</v>
+      </c>
       <c r="G26" s="35"/>
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
@@ -15826,7 +15907,9 @@
       <c r="E27" s="35">
         <v>6116</v>
       </c>
-      <c r="F27" s="35"/>
+      <c r="F27" s="35">
+        <v>6089</v>
+      </c>
       <c r="G27" s="35"/>
       <c r="H27" s="35"/>
       <c r="I27" s="35"/>
@@ -15852,7 +15935,9 @@
       <c r="E28" s="35">
         <v>2755</v>
       </c>
-      <c r="F28" s="35"/>
+      <c r="F28" s="35">
+        <v>2745</v>
+      </c>
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
       <c r="I28" s="35"/>
@@ -15878,7 +15963,9 @@
       <c r="E29" s="35">
         <v>3074</v>
       </c>
-      <c r="F29" s="35"/>
+      <c r="F29" s="35">
+        <v>3065</v>
+      </c>
       <c r="G29" s="35"/>
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
@@ -15904,7 +15991,9 @@
       <c r="E30" s="35">
         <v>3786</v>
       </c>
-      <c r="F30" s="35"/>
+      <c r="F30" s="35">
+        <v>3780</v>
+      </c>
       <c r="G30" s="35"/>
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
@@ -15930,7 +16019,9 @@
       <c r="E31" s="35">
         <v>765</v>
       </c>
-      <c r="F31" s="35"/>
+      <c r="F31" s="35">
+        <v>767</v>
+      </c>
       <c r="G31" s="35"/>
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
@@ -15956,7 +16047,9 @@
       <c r="E32" s="35">
         <v>2414</v>
       </c>
-      <c r="F32" s="35"/>
+      <c r="F32" s="35">
+        <v>2398</v>
+      </c>
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
@@ -15982,7 +16075,9 @@
       <c r="E33" s="35">
         <v>1786</v>
       </c>
-      <c r="F33" s="35"/>
+      <c r="F33" s="35">
+        <v>1783</v>
+      </c>
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
@@ -16008,7 +16103,9 @@
       <c r="E34" s="35">
         <v>11</v>
       </c>
-      <c r="F34" s="35"/>
+      <c r="F34" s="35">
+        <v>11</v>
+      </c>
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
@@ -16034,7 +16131,9 @@
       <c r="E35" s="35">
         <v>4424</v>
       </c>
-      <c r="F35" s="35"/>
+      <c r="F35" s="35">
+        <v>4400</v>
+      </c>
       <c r="G35" s="35"/>
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
@@ -16060,7 +16159,9 @@
       <c r="E36" s="35">
         <v>1207</v>
       </c>
-      <c r="F36" s="35"/>
+      <c r="F36" s="35">
+        <v>1201</v>
+      </c>
       <c r="G36" s="35"/>
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
@@ -16086,7 +16187,9 @@
       <c r="E37" s="35">
         <v>15045</v>
       </c>
-      <c r="F37" s="35"/>
+      <c r="F37" s="35">
+        <v>14978</v>
+      </c>
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
@@ -16112,7 +16215,9 @@
       <c r="E38" s="35">
         <v>775</v>
       </c>
-      <c r="F38" s="35"/>
+      <c r="F38" s="35">
+        <v>771</v>
+      </c>
       <c r="G38" s="35"/>
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
@@ -16138,7 +16243,9 @@
       <c r="E39" s="35">
         <v>476</v>
       </c>
-      <c r="F39" s="35"/>
+      <c r="F39" s="35">
+        <v>477</v>
+      </c>
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
@@ -16164,7 +16271,9 @@
       <c r="E40" s="35">
         <v>2170</v>
       </c>
-      <c r="F40" s="35"/>
+      <c r="F40" s="35">
+        <v>2156</v>
+      </c>
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
@@ -16190,7 +16299,9 @@
       <c r="E41" s="35">
         <v>1658</v>
       </c>
-      <c r="F41" s="35"/>
+      <c r="F41" s="35">
+        <v>1642</v>
+      </c>
       <c r="G41" s="35"/>
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
@@ -16216,7 +16327,9 @@
       <c r="E42" s="35">
         <v>169</v>
       </c>
-      <c r="F42" s="35"/>
+      <c r="F42" s="35">
+        <v>170</v>
+      </c>
       <c r="G42" s="35"/>
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
@@ -16242,7 +16355,9 @@
       <c r="E43" s="35">
         <v>2079</v>
       </c>
-      <c r="F43" s="35"/>
+      <c r="F43" s="35">
+        <v>2066</v>
+      </c>
       <c r="G43" s="35"/>
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
@@ -16268,7 +16383,9 @@
       <c r="E44" s="35">
         <v>548</v>
       </c>
-      <c r="F44" s="35"/>
+      <c r="F44" s="35">
+        <v>547</v>
+      </c>
       <c r="G44" s="35"/>
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
@@ -16294,7 +16411,9 @@
       <c r="E45" s="35">
         <v>1170</v>
       </c>
-      <c r="F45" s="35"/>
+      <c r="F45" s="35">
+        <v>1162</v>
+      </c>
       <c r="G45" s="35"/>
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
@@ -16320,7 +16439,9 @@
       <c r="E46" s="35">
         <v>232</v>
       </c>
-      <c r="F46" s="35"/>
+      <c r="F46" s="35">
+        <v>233</v>
+      </c>
       <c r="G46" s="35"/>
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
@@ -16346,7 +16467,9 @@
       <c r="E47" s="35">
         <v>1196</v>
       </c>
-      <c r="F47" s="35"/>
+      <c r="F47" s="35">
+        <v>1192</v>
+      </c>
       <c r="G47" s="35"/>
       <c r="H47" s="35"/>
       <c r="I47" s="35"/>
@@ -16372,7 +16495,9 @@
       <c r="E48" s="35">
         <v>192</v>
       </c>
-      <c r="F48" s="35"/>
+      <c r="F48" s="35">
+        <v>191</v>
+      </c>
       <c r="G48" s="35"/>
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
@@ -16398,7 +16523,9 @@
       <c r="E49" s="35">
         <v>285</v>
       </c>
-      <c r="F49" s="35"/>
+      <c r="F49" s="35">
+        <v>286</v>
+      </c>
       <c r="G49" s="35"/>
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
@@ -16424,7 +16551,9 @@
       <c r="E50" s="35">
         <v>466</v>
       </c>
-      <c r="F50" s="35"/>
+      <c r="F50" s="35">
+        <v>467</v>
+      </c>
       <c r="G50" s="35"/>
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
@@ -16456,7 +16585,7 @@
       </c>
       <c r="F51" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59156</v>
       </c>
       <c r="G51" s="15">
         <f t="shared" si="0"/>
@@ -17456,11 +17585,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:O1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView topLeftCell="C40" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -17621,7 +17750,9 @@
       <c r="F13" s="43">
         <v>18812</v>
       </c>
-      <c r="G13" s="36"/>
+      <c r="G13" s="36">
+        <v>18774</v>
+      </c>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
@@ -17648,7 +17779,9 @@
       <c r="F14" s="43">
         <v>1</v>
       </c>
-      <c r="G14" s="36"/>
+      <c r="G14" s="36">
+        <v>1</v>
+      </c>
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
@@ -17675,7 +17808,9 @@
       <c r="F15" s="43">
         <v>270</v>
       </c>
-      <c r="G15" s="36"/>
+      <c r="G15" s="36">
+        <v>267</v>
+      </c>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
@@ -17702,7 +17837,9 @@
       <c r="F16" s="43">
         <v>53</v>
       </c>
-      <c r="G16" s="36"/>
+      <c r="G16" s="36">
+        <v>51</v>
+      </c>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
@@ -17731,7 +17868,9 @@
       <c r="F17" s="43">
         <v>13362</v>
       </c>
-      <c r="G17" s="36"/>
+      <c r="G17" s="36">
+        <v>13279</v>
+      </c>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
@@ -17758,7 +17897,9 @@
       <c r="F18" s="43">
         <v>614</v>
       </c>
-      <c r="G18" s="36"/>
+      <c r="G18" s="36">
+        <v>609</v>
+      </c>
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
@@ -17785,7 +17926,9 @@
       <c r="F19" s="43">
         <v>65</v>
       </c>
-      <c r="G19" s="36"/>
+      <c r="G19" s="36">
+        <v>64</v>
+      </c>
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
@@ -17812,7 +17955,9 @@
       <c r="F20" s="43">
         <v>28</v>
       </c>
-      <c r="G20" s="36"/>
+      <c r="G20" s="36">
+        <v>28</v>
+      </c>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
@@ -17841,7 +17986,9 @@
       <c r="F21" s="43">
         <v>7982</v>
       </c>
-      <c r="G21" s="36"/>
+      <c r="G21" s="36">
+        <v>7940</v>
+      </c>
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
@@ -17868,7 +18015,9 @@
       <c r="F22" s="43">
         <v>422</v>
       </c>
-      <c r="G22" s="36"/>
+      <c r="G22" s="36">
+        <v>421</v>
+      </c>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
@@ -17895,7 +18044,9 @@
       <c r="F23" s="43">
         <v>89</v>
       </c>
-      <c r="G23" s="36"/>
+      <c r="G23" s="36">
+        <v>88</v>
+      </c>
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
@@ -17922,7 +18073,9 @@
       <c r="F24" s="43">
         <v>84</v>
       </c>
-      <c r="G24" s="36"/>
+      <c r="G24" s="36">
+        <v>84</v>
+      </c>
       <c r="H24" s="36"/>
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
@@ -17949,7 +18102,9 @@
       <c r="F25" s="43">
         <v>123</v>
       </c>
-      <c r="G25" s="36"/>
+      <c r="G25" s="36">
+        <v>122</v>
+      </c>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
@@ -17976,7 +18131,9 @@
       <c r="F26" s="43">
         <v>156</v>
       </c>
-      <c r="G26" s="36"/>
+      <c r="G26" s="36">
+        <v>153</v>
+      </c>
       <c r="H26" s="36"/>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
@@ -18003,7 +18160,9 @@
       <c r="F27" s="43">
         <v>336</v>
       </c>
-      <c r="G27" s="36"/>
+      <c r="G27" s="36">
+        <v>333</v>
+      </c>
       <c r="H27" s="36"/>
       <c r="I27" s="36"/>
       <c r="J27" s="36"/>
@@ -18030,7 +18189,9 @@
       <c r="F28" s="43">
         <v>15</v>
       </c>
-      <c r="G28" s="36"/>
+      <c r="G28" s="36">
+        <v>14</v>
+      </c>
       <c r="H28" s="36"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
@@ -18057,7 +18218,9 @@
       <c r="F29" s="43">
         <v>72</v>
       </c>
-      <c r="G29" s="36"/>
+      <c r="G29" s="36">
+        <v>73</v>
+      </c>
       <c r="H29" s="36"/>
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
@@ -18084,7 +18247,9 @@
       <c r="F30" s="43">
         <v>9</v>
       </c>
-      <c r="G30" s="36"/>
+      <c r="G30" s="36">
+        <v>9</v>
+      </c>
       <c r="H30" s="36"/>
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
@@ -18111,7 +18276,9 @@
       <c r="F31" s="43">
         <v>14</v>
       </c>
-      <c r="G31" s="36"/>
+      <c r="G31" s="36">
+        <v>14</v>
+      </c>
       <c r="H31" s="36"/>
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
@@ -18138,7 +18305,9 @@
       <c r="F32" s="43">
         <v>54</v>
       </c>
-      <c r="G32" s="36"/>
+      <c r="G32" s="36">
+        <v>53</v>
+      </c>
       <c r="H32" s="36"/>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
@@ -18165,7 +18334,9 @@
       <c r="F33" s="43">
         <v>0</v>
       </c>
-      <c r="G33" s="36"/>
+      <c r="G33" s="36">
+        <v>0</v>
+      </c>
       <c r="H33" s="36"/>
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
@@ -18194,7 +18365,9 @@
       <c r="F34" s="43">
         <v>4712</v>
       </c>
-      <c r="G34" s="36"/>
+      <c r="G34" s="36">
+        <v>4691</v>
+      </c>
       <c r="H34" s="36"/>
       <c r="I34" s="36"/>
       <c r="J34" s="36"/>
@@ -18221,7 +18394,9 @@
       <c r="F35" s="43">
         <v>72</v>
       </c>
-      <c r="G35" s="36"/>
+      <c r="G35" s="36">
+        <v>72</v>
+      </c>
       <c r="H35" s="36"/>
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
@@ -18248,7 +18423,9 @@
       <c r="F36" s="43">
         <v>4</v>
       </c>
-      <c r="G36" s="36"/>
+      <c r="G36" s="36">
+        <v>4</v>
+      </c>
       <c r="H36" s="36"/>
       <c r="I36" s="36"/>
       <c r="J36" s="36"/>
@@ -18275,7 +18452,9 @@
       <c r="F37" s="43">
         <v>566</v>
       </c>
-      <c r="G37" s="36"/>
+      <c r="G37" s="36">
+        <v>563</v>
+      </c>
       <c r="H37" s="36"/>
       <c r="I37" s="36"/>
       <c r="J37" s="36"/>
@@ -18302,7 +18481,9 @@
       <c r="F38" s="43">
         <v>136</v>
       </c>
-      <c r="G38" s="36"/>
+      <c r="G38" s="36">
+        <v>135</v>
+      </c>
       <c r="H38" s="36"/>
       <c r="I38" s="36"/>
       <c r="J38" s="36"/>
@@ -18329,7 +18510,9 @@
       <c r="F39" s="43">
         <v>0</v>
       </c>
-      <c r="G39" s="36"/>
+      <c r="G39" s="36">
+        <v>0</v>
+      </c>
       <c r="H39" s="36"/>
       <c r="I39" s="36"/>
       <c r="J39" s="36"/>
@@ -18358,7 +18541,9 @@
       <c r="F40" s="43">
         <v>3358</v>
       </c>
-      <c r="G40" s="36"/>
+      <c r="G40" s="36">
+        <v>3353</v>
+      </c>
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
       <c r="J40" s="36"/>
@@ -18385,7 +18570,9 @@
       <c r="F41" s="43">
         <v>139</v>
       </c>
-      <c r="G41" s="36"/>
+      <c r="G41" s="36">
+        <v>139</v>
+      </c>
       <c r="H41" s="36"/>
       <c r="I41" s="36"/>
       <c r="J41" s="36"/>
@@ -18412,7 +18599,9 @@
       <c r="F42" s="43">
         <v>22</v>
       </c>
-      <c r="G42" s="36"/>
+      <c r="G42" s="36">
+        <v>22</v>
+      </c>
       <c r="H42" s="36"/>
       <c r="I42" s="36"/>
       <c r="J42" s="36"/>
@@ -18439,7 +18628,9 @@
       <c r="F43" s="43">
         <v>45</v>
       </c>
-      <c r="G43" s="36"/>
+      <c r="G43" s="36">
+        <v>44</v>
+      </c>
       <c r="H43" s="36"/>
       <c r="I43" s="36"/>
       <c r="J43" s="36"/>
@@ -18466,7 +18657,9 @@
       <c r="F44" s="43">
         <v>118</v>
       </c>
-      <c r="G44" s="36"/>
+      <c r="G44" s="36">
+        <v>115</v>
+      </c>
       <c r="H44" s="36"/>
       <c r="I44" s="36"/>
       <c r="J44" s="36"/>
@@ -18493,7 +18686,9 @@
       <c r="F45" s="43">
         <v>796</v>
       </c>
-      <c r="G45" s="36"/>
+      <c r="G45" s="36">
+        <v>792</v>
+      </c>
       <c r="H45" s="36"/>
       <c r="I45" s="36"/>
       <c r="J45" s="36"/>
@@ -18520,7 +18715,9 @@
       <c r="F46" s="43">
         <v>358</v>
       </c>
-      <c r="G46" s="36"/>
+      <c r="G46" s="36">
+        <v>356</v>
+      </c>
       <c r="H46" s="36"/>
       <c r="I46" s="36"/>
       <c r="J46" s="36"/>
@@ -18549,7 +18746,9 @@
       <c r="F47" s="43">
         <v>3083</v>
       </c>
-      <c r="G47" s="36"/>
+      <c r="G47" s="36">
+        <v>3075</v>
+      </c>
       <c r="H47" s="36"/>
       <c r="I47" s="36"/>
       <c r="J47" s="36"/>
@@ -18576,7 +18775,9 @@
       <c r="F48" s="43">
         <v>69</v>
       </c>
-      <c r="G48" s="36"/>
+      <c r="G48" s="36">
+        <v>69</v>
+      </c>
       <c r="H48" s="36"/>
       <c r="I48" s="36"/>
       <c r="J48" s="36"/>
@@ -18603,7 +18804,9 @@
       <c r="F49" s="43">
         <v>1</v>
       </c>
-      <c r="G49" s="36"/>
+      <c r="G49" s="36">
+        <v>1</v>
+      </c>
       <c r="H49" s="36"/>
       <c r="I49" s="36"/>
       <c r="J49" s="36"/>
@@ -18632,7 +18835,9 @@
       <c r="F50" s="43">
         <v>2003</v>
       </c>
-      <c r="G50" s="36"/>
+      <c r="G50" s="36">
+        <v>2004</v>
+      </c>
       <c r="H50" s="36"/>
       <c r="I50" s="36"/>
       <c r="J50" s="36"/>
@@ -18659,7 +18864,9 @@
       <c r="F51" s="43">
         <v>76</v>
       </c>
-      <c r="G51" s="36"/>
+      <c r="G51" s="36">
+        <v>76</v>
+      </c>
       <c r="H51" s="36"/>
       <c r="I51" s="36"/>
       <c r="J51" s="36"/>
@@ -18686,7 +18893,9 @@
       <c r="F52" s="43">
         <v>243</v>
       </c>
-      <c r="G52" s="36"/>
+      <c r="G52" s="36">
+        <v>240</v>
+      </c>
       <c r="H52" s="36"/>
       <c r="I52" s="36"/>
       <c r="J52" s="36"/>
@@ -18713,7 +18922,9 @@
       <c r="F53" s="43">
         <v>152</v>
       </c>
-      <c r="G53" s="36"/>
+      <c r="G53" s="36">
+        <v>149</v>
+      </c>
       <c r="H53" s="36"/>
       <c r="I53" s="36"/>
       <c r="J53" s="36"/>
@@ -18740,7 +18951,9 @@
       <c r="F54" s="43">
         <v>6</v>
       </c>
-      <c r="G54" s="36"/>
+      <c r="G54" s="36">
+        <v>6</v>
+      </c>
       <c r="H54" s="36"/>
       <c r="I54" s="36"/>
       <c r="J54" s="36"/>
@@ -18769,7 +18982,9 @@
       <c r="F55" s="43">
         <v>451</v>
       </c>
-      <c r="G55" s="36"/>
+      <c r="G55" s="36">
+        <v>449</v>
+      </c>
       <c r="H55" s="36"/>
       <c r="I55" s="36"/>
       <c r="J55" s="36"/>
@@ -18796,7 +19011,9 @@
       <c r="F56" s="43">
         <v>151</v>
       </c>
-      <c r="G56" s="36"/>
+      <c r="G56" s="36">
+        <v>150</v>
+      </c>
       <c r="H56" s="36"/>
       <c r="I56" s="36"/>
       <c r="J56" s="36"/>
@@ -18823,7 +19040,9 @@
       <c r="F57" s="43">
         <v>46</v>
       </c>
-      <c r="G57" s="36"/>
+      <c r="G57" s="36">
+        <v>46</v>
+      </c>
       <c r="H57" s="36"/>
       <c r="I57" s="36"/>
       <c r="J57" s="36"/>
@@ -18850,7 +19069,9 @@
       <c r="F58" s="43">
         <v>31</v>
       </c>
-      <c r="G58" s="36"/>
+      <c r="G58" s="36">
+        <v>31</v>
+      </c>
       <c r="H58" s="36"/>
       <c r="I58" s="36"/>
       <c r="J58" s="36"/>
@@ -18877,7 +19098,9 @@
       <c r="F59" s="43">
         <v>32</v>
       </c>
-      <c r="G59" s="36"/>
+      <c r="G59" s="36">
+        <v>32</v>
+      </c>
       <c r="H59" s="36"/>
       <c r="I59" s="36"/>
       <c r="J59" s="36"/>
@@ -18904,7 +19127,9 @@
       <c r="F60" s="43">
         <v>19</v>
       </c>
-      <c r="G60" s="36"/>
+      <c r="G60" s="36">
+        <v>19</v>
+      </c>
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
       <c r="J60" s="36"/>
@@ -18931,7 +19156,9 @@
       <c r="F61" s="43">
         <v>9</v>
       </c>
-      <c r="G61" s="36"/>
+      <c r="G61" s="36">
+        <v>8</v>
+      </c>
       <c r="H61" s="36"/>
       <c r="I61" s="36"/>
       <c r="J61" s="36"/>
@@ -18960,7 +19187,9 @@
       <c r="F62" s="43">
         <v>139</v>
       </c>
-      <c r="G62" s="36"/>
+      <c r="G62" s="36">
+        <v>138</v>
+      </c>
       <c r="H62" s="36"/>
       <c r="I62" s="36"/>
       <c r="J62" s="36"/>
@@ -18993,7 +19222,7 @@
       </c>
       <c r="G63" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59156</v>
       </c>
       <c r="H63" s="15">
         <f t="shared" si="0"/>
